--- a/Results/Test Case Comparison/Passing_Test_Case_Better_Than_HE.xlsx
+++ b/Results/Test Case Comparison/Passing_Test_Case_Better_Than_HE.xlsx
@@ -123,10 +123,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,14 +423,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -571,7 +571,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2">
@@ -591,27 +591,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>23.170731707317</v>
       </c>
       <c r="C10" s="2">
-        <v>30.487804878048699</v>
+        <v>29.878048780487799</v>
       </c>
       <c r="D10" s="2">
-        <v>30.487804878048699</v>
+        <v>29.878048780487799</v>
       </c>
       <c r="E10" s="2">
         <v>23.780487804878</v>
       </c>
       <c r="F10" s="2">
-        <v>27.439024390243901</v>
+        <v>26.829268292682901</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="2">
